--- a/Paper_resultados/Descriptive_analysis/03_Categorical/xlsx/Sex/Total.xlsx
+++ b/Paper_resultados/Descriptive_analysis/03_Categorical/xlsx/Sex/Total.xlsx
@@ -382,7 +382,7 @@
         <v>700</v>
       </c>
       <c r="C2">
-        <v>63.75227686703096</v>
+        <v>63.75227686703097</v>
       </c>
     </row>
     <row r="3">

--- a/Paper_resultados/Descriptive_analysis/03_Categorical/xlsx/Sex/Total.xlsx
+++ b/Paper_resultados/Descriptive_analysis/03_Categorical/xlsx/Sex/Total.xlsx
@@ -382,7 +382,7 @@
         <v>700</v>
       </c>
       <c r="C2">
-        <v>63.75227686703097</v>
+        <v>63.75227686703096</v>
       </c>
     </row>
     <row r="3">
